--- a/Result/Orbit/Service/GBR.xlsx
+++ b/Result/Orbit/Service/GBR.xlsx
@@ -463,7 +463,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>68.38088725670931</v>
+        <v>68.46827351815418</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>68.58294972267063</v>
+        <v>69.05086111157833</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>69.5351253403157</v>
+        <v>69.02024758716513</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>70.43081793442168</v>
+        <v>69.9229332137264</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>70.42546283125513</v>
+        <v>70.65589131164251</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>64.87304682921798</v>
+        <v>70.61787411045512</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>65.08108618280909</v>
+        <v>65.26177817193823</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>65.6335130198355</v>
+        <v>64.84220800938115</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>66.06632355622156</v>
+        <v>65.28206932440315</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>66.12771960805014</v>
+        <v>66.07565243580216</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>66.06690942193902</v>
+        <v>66.28496747700402</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>67.41247768214825</v>
+        <v>66.22534542074807</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>67.65845946018602</v>
+        <v>67.4278393611042</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>68.25630768986564</v>
+        <v>67.64201236129017</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>68.89064443092089</v>
+        <v>68.36189153009396</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>69.2727355864584</v>
+        <v>69.00136793947215</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>69.19494664534015</v>
+        <v>69.40752461544676</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>69.72553414880804</v>
+        <v>69.47669380506926</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>69.86086647585117</v>
+        <v>69.85079439045447</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>71.60777589395808</v>
+        <v>69.88417233630005</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>70.61447281501307</v>
+        <v>71.77132886674818</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>70.10779816101621</v>
+        <v>70.81315946366033</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>70.26650516598842</v>
+        <v>70.29398357045352</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>69.90851320716837</v>
+        <v>70.04843779736365</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>70.12885880856771</v>
+        <v>69.66323101200635</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>70.47444931097988</v>
+        <v>70.20081220691088</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>71.05211743505777</v>
+        <v>70.61434680686921</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -774,50 +774,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>71.05211723234751</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>71.11388085707398</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69.74801427796946</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73.02408299420429</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>71.05211723234751</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>71.23724570868686</v>
+      </c>
+      <c r="C3" t="n">
+        <v>69.60895028015186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.46045676531558</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>71.05211723234751</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>71.32510341928563</v>
+      </c>
+      <c r="C4" t="n">
+        <v>69.09416624514473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.49755297082248</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>71.05211723234751</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>71.50558291001998</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68.92363307111495</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.15593234528237</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>71.05211723234751</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>71.47565457233964</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68.73636270760164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76.37308524311666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -865,7 +885,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>68.38088725670931</v>
+        <v>68.38349621389905</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>68.58294972267063</v>
+        <v>69.266650944871</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>69.5351253403157</v>
+        <v>69.12469749958075</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>70.43081793442168</v>
+        <v>69.80840236512748</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>70.42546283125513</v>
+        <v>70.7138402799557</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>64.87304682921798</v>
+        <v>70.54971265658581</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>65.08108618280909</v>
+        <v>65.68418123525953</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>65.6335130198355</v>
+        <v>64.85615209246143</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>66.06632355622156</v>
+        <v>65.33715516224724</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>66.12771960805014</v>
+        <v>66.0946252320033</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>66.06690942193902</v>
+        <v>66.10888262239989</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>67.41247768214825</v>
+        <v>66.04861063141242</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>67.65845946018602</v>
+        <v>67.41114647370961</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>68.25630768986564</v>
+        <v>67.78366194676377</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>68.89064443092089</v>
+        <v>68.49096301705836</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>69.2727355864584</v>
+        <v>69.01796562598354</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>69.19494664534015</v>
+        <v>69.35128021895568</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>69.72553414880804</v>
+        <v>69.44897143008941</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>69.86086647585117</v>
+        <v>69.7773769988173</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>71.60777589395808</v>
+        <v>70.00788859877524</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>70.61447281501307</v>
+        <v>71.69297750687406</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>70.10779816101621</v>
+        <v>70.95179649953204</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>70.26650516598842</v>
+        <v>70.0836242271227</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>69.90851320716837</v>
+        <v>70.26376369407032</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>70.12885880856771</v>
+        <v>69.95070401581441</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>70.47444931097988</v>
+        <v>70.23950634172562</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>71.05211743505777</v>
+        <v>70.52546168556162</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>70.86130988683175</v>
+        <v>71.23052654358185</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>70.85863556508062</v>
+        <v>71.10763236654094</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>70.85647344479607</v>
+        <v>70.98718926774026</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>72.7220432100172</v>
+        <v>70.81835938710418</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>71.6304410687019</v>
+        <v>72.58279559420157</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1226,50 +1246,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>71.68704222591772</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>71.7913791147586</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70.66821050536704</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73.45495260902857</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>71.68704222591772</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>71.69478553743525</v>
+      </c>
+      <c r="C3" t="n">
+        <v>70.14857362107263</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.68218634614036</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>71.68704222591772</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>71.79199505321674</v>
+      </c>
+      <c r="C4" t="n">
+        <v>69.30541893062781</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.38502737746363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>71.68704222591772</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>71.74598737916347</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69.22407746431801</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.44492425897496</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>71.68704222591772</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>71.85195412556649</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68.84962002963206</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76.07217387881538</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
